--- a/Texts/Особые Эпизоды/3 Сегодняшнее О Боже Мой/Сюжет.xlsx
+++ b/Texts/Особые Эпизоды/3 Сегодняшнее О Боже Мой/Сюжет.xlsx
@@ -3450,9 +3450,6 @@
     <t>[CN]Всегда возникала ослепляющая вспышка...</t>
   </si>
   <si>
-    <t>[CN]На мнгновение я ничего не видела...</t>
-  </si>
-  <si>
     <t>[CN]Так ведь, именно тогда...</t>
   </si>
   <si>
@@ -3489,9 +3486,6 @@
     <t>[CN]Âòåãäà âïèîéëàìà ïòìåðìÿýþàÿ âòðúšëà...</t>
   </si>
   <si>
-    <t>[CN]Îà íîãîïâåîéå ÿ îéœåãï îå âéäåìà...</t>
-  </si>
-  <si>
     <t>[CN]Óàë âåäû, éíåîîï óïãäà...</t>
   </si>
   <si>
@@ -4500,9 +4494,6 @@
     <t>[CN]Интересно, сможешь ли ты снова\n[CN]ходить со мной в подземелья.</t>
   </si>
   <si>
-    <t>[CN]Интересно, сможем ли мы...[K]\n[CN]Снова быть друзяьми?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> И всё же...</t>
   </si>
   <si>
@@ -4581,9 +4572,6 @@
     <t>[CN]Éîóåñåòîï, òíïçåšû ìé óú òîïâà\n[CN]öïäéóû òï íîïê â ðïäèåíåìûÿ.</t>
   </si>
   <si>
-    <t>[CN]Éîóåñåòîï, òíïçåí ìé íú...[K]\n[CN]Òîïâà áúóû äñôèÿûíé?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> É âòæ çå...</t>
   </si>
   <si>
@@ -4597,6 +4585,18 @@
   </si>
   <si>
     <t>[CN]\"Òðàòéáï óåáå.\"</t>
+  </si>
+  <si>
+    <t>[CN]На мгновение я ничего не видела...</t>
+  </si>
+  <si>
+    <t>[CN]Îà íãîïâåîéå ÿ îéœåãï îå âéäåìà…</t>
+  </si>
+  <si>
+    <t>[CN]Интересно, сможем ли мы...[K]\n[CN]Снова быть друзьями?</t>
+  </si>
+  <si>
+    <t>[CN]Éîóåñåòîï, òíïçåí ìé íú...[K]\n[CN]Òîïâà áúóû äñôèûÿíé?</t>
   </si>
 </sst>
 </file>
@@ -5225,8 +5225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E513" sqref="E513"/>
+    <sheetView tabSelected="1" topLeftCell="A562" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E564" sqref="E564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10224,7 +10224,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="25"/>
       <c r="C328" s="13">
         <v>1408</v>
@@ -11379,7 +11379,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A406" s="25"/>
       <c r="C406" s="13">
         <v>89</v>
@@ -11588,7 +11588,7 @@
         <v>1140</v>
       </c>
       <c r="F419" s="14" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11633,7 +11633,7 @@
         <v>1141</v>
       </c>
       <c r="F422" s="14" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11648,7 +11648,7 @@
         <v>1142</v>
       </c>
       <c r="F423" s="14" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11660,10 +11660,10 @@
         <v>1129</v>
       </c>
       <c r="E424" s="14" t="s">
-        <v>1143</v>
+        <v>1522</v>
       </c>
       <c r="F424" s="14" t="s">
-        <v>1156</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -11675,10 +11675,10 @@
         <v>1130</v>
       </c>
       <c r="E425" s="14" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F425" s="14" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -11690,10 +11690,10 @@
         <v>1131</v>
       </c>
       <c r="E426" s="14" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F426" s="14" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11705,10 +11705,10 @@
         <v>1132</v>
       </c>
       <c r="E427" s="14" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F427" s="14" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11720,10 +11720,10 @@
         <v>1133</v>
       </c>
       <c r="E428" s="14" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F428" s="14" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11735,10 +11735,10 @@
         <v>1134</v>
       </c>
       <c r="E429" s="14" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F429" s="14" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11750,10 +11750,10 @@
         <v>1135</v>
       </c>
       <c r="E430" s="14" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F430" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -11887,10 +11887,10 @@
         <v>1136</v>
       </c>
       <c r="E439" s="14" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F439" s="14" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11902,10 +11902,10 @@
         <v>1137</v>
       </c>
       <c r="E440" s="14" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F440" s="14" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -11917,10 +11917,10 @@
         <v>1138</v>
       </c>
       <c r="E441" s="14" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F441" s="14" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -11933,16 +11933,16 @@
         <v>1139</v>
       </c>
       <c r="E442" s="34" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F442" s="34" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A443" s="16"/>
       <c r="B443" s="16" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C443" s="16"/>
       <c r="D443" s="17"/>
@@ -11955,13 +11955,13 @@
         <v>14</v>
       </c>
       <c r="D444" s="14" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E444" s="14" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F444" s="14" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -11970,13 +11970,13 @@
         <v>17</v>
       </c>
       <c r="D445" s="14" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E445" s="14" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F445" s="14" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -11987,13 +11987,13 @@
         <v>22</v>
       </c>
       <c r="D446" s="14" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E446" s="14" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="F446" s="14" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -12017,13 +12017,13 @@
         <v>45</v>
       </c>
       <c r="D448" s="14" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E448" s="14" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F448" s="14" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12032,13 +12032,13 @@
         <v>48</v>
       </c>
       <c r="D449" s="14" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E449" s="14" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F449" s="14" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -12047,13 +12047,13 @@
         <v>51</v>
       </c>
       <c r="D450" s="14" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E450" s="14" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F450" s="14" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -12065,19 +12065,19 @@
         <v>67</v>
       </c>
       <c r="D451" s="28" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E451" s="28" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F451" s="28" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A452" s="41"/>
       <c r="B452" s="41" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C452" s="41"/>
       <c r="D452" s="42"/>
@@ -12090,13 +12090,13 @@
         <v>25</v>
       </c>
       <c r="D453" s="14" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E453" s="14" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F453" s="14" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12107,13 +12107,13 @@
         <v>32</v>
       </c>
       <c r="D454" s="14" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E454" s="14" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F454" s="14" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -12122,13 +12122,13 @@
         <v>35</v>
       </c>
       <c r="D455" s="14" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E455" s="14" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F455" s="14" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12137,13 +12137,13 @@
         <v>38</v>
       </c>
       <c r="D456" s="14" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E456" s="14" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F456" s="14" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -12152,13 +12152,13 @@
         <v>41</v>
       </c>
       <c r="D457" s="14" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E457" s="14" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="F457" s="14" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12167,13 +12167,13 @@
         <v>55</v>
       </c>
       <c r="D458" s="14" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E458" s="14" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F458" s="14" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -12182,13 +12182,13 @@
         <v>58</v>
       </c>
       <c r="D459" s="14" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E459" s="14" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="F459" s="14" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -12214,13 +12214,13 @@
         <v>160</v>
       </c>
       <c r="D461" s="14" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E461" s="14" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="F461" s="14" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -12229,13 +12229,13 @@
         <v>179</v>
       </c>
       <c r="D462" s="14" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E462" s="14" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F462" s="14" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -12246,13 +12246,13 @@
         <v>185</v>
       </c>
       <c r="D463" s="14" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E463" s="14" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F463" s="14" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12261,13 +12261,13 @@
         <v>190</v>
       </c>
       <c r="D464" s="14" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E464" s="14" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F464" s="14" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -12278,13 +12278,13 @@
         <v>200</v>
       </c>
       <c r="D465" s="14" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E465" s="14" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F465" s="14" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -12293,13 +12293,13 @@
         <v>210</v>
       </c>
       <c r="D466" s="14" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E466" s="14" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="F466" s="14" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12309,21 +12309,21 @@
         <v>227</v>
       </c>
       <c r="D467" s="34" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E467" s="34" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="F467" s="34" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A468" s="15" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B468" s="16" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C468" s="16"/>
       <c r="D468" s="17"/>
@@ -12366,13 +12366,13 @@
         <v>66</v>
       </c>
       <c r="D471" s="14" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E471" s="14" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F471" s="14" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12381,13 +12381,13 @@
         <v>75</v>
       </c>
       <c r="D472" s="14" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E472" s="14" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F472" s="14" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -12397,19 +12397,19 @@
         <v>79</v>
       </c>
       <c r="D473" s="28" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E473" s="28" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="F473" s="28" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A474" s="22"/>
       <c r="B474" s="22" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C474" s="22"/>
       <c r="D474" s="23"/>
@@ -12422,13 +12422,13 @@
         <v>19</v>
       </c>
       <c r="D475" s="14" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E475" s="14" t="s">
         <v>1244</v>
       </c>
-      <c r="E475" s="14" t="s">
+      <c r="F475" s="14" t="s">
         <v>1246</v>
-      </c>
-      <c r="F475" s="14" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -12438,21 +12438,21 @@
         <v>22</v>
       </c>
       <c r="D476" s="34" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E476" s="34" t="s">
         <v>1245</v>
       </c>
-      <c r="E476" s="34" t="s">
+      <c r="F476" s="34" t="s">
         <v>1247</v>
-      </c>
-      <c r="F476" s="34" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A477" s="45" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B477" s="43" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C477" s="43"/>
       <c r="D477" s="44"/>
@@ -12465,13 +12465,13 @@
         <v>28</v>
       </c>
       <c r="D478" s="14" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E478" s="14" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F478" s="14" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -12480,13 +12480,13 @@
         <v>39</v>
       </c>
       <c r="D479" s="14" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E479" s="14" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="F479" s="14" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12497,13 +12497,13 @@
         <v>61</v>
       </c>
       <c r="D480" s="14" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E480" s="14" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F480" s="14" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12512,13 +12512,13 @@
         <v>64</v>
       </c>
       <c r="D481" s="14" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E481" s="14" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="F481" s="14" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12527,13 +12527,13 @@
         <v>67</v>
       </c>
       <c r="D482" s="14" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E482" s="14" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="F482" s="14" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12544,13 +12544,13 @@
         <v>88</v>
       </c>
       <c r="D483" s="14" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E483" s="14" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F483" s="14" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -12559,13 +12559,13 @@
         <v>97</v>
       </c>
       <c r="D484" s="14" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E484" s="14" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="F484" s="14" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12574,13 +12574,13 @@
         <v>100</v>
       </c>
       <c r="D485" s="14" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E485" s="14" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="F485" s="14" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -12589,13 +12589,13 @@
         <v>110</v>
       </c>
       <c r="D486" s="14" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="E486" s="14" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="F486" s="14" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12604,13 +12604,13 @@
         <v>113</v>
       </c>
       <c r="D487" s="14" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E487" s="14" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F487" s="14" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12622,21 +12622,21 @@
         <v>130</v>
       </c>
       <c r="D488" s="34" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E488" s="34" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="F488" s="34" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A489" s="15" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B489" s="16" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C489" s="16"/>
       <c r="D489" s="17"/>
@@ -12651,13 +12651,13 @@
         <v>26</v>
       </c>
       <c r="D490" s="14" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E490" s="14" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="F490" s="14" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -12666,13 +12666,13 @@
         <v>31</v>
       </c>
       <c r="D491" s="14" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="E491" s="14" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F491" s="14" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -12681,13 +12681,13 @@
         <v>36</v>
       </c>
       <c r="D492" s="14" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E492" s="14" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="F492" s="14" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12698,13 +12698,13 @@
         <v>58</v>
       </c>
       <c r="D493" s="14" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E493" s="14" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F493" s="14" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -12713,13 +12713,13 @@
         <v>73</v>
       </c>
       <c r="D494" s="14" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="E494" s="14" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F494" s="14" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -12729,19 +12729,19 @@
         <v>76</v>
       </c>
       <c r="D495" s="28" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E495" s="28" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F495" s="28" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="22"/>
       <c r="B496" s="22" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C496" s="22"/>
       <c r="D496" s="23"/>
@@ -12756,13 +12756,13 @@
         <v>15</v>
       </c>
       <c r="D497" s="14" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E497" s="14" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F497" s="14" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -12771,13 +12771,13 @@
         <v>18</v>
       </c>
       <c r="D498" s="14" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E498" s="14" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F498" s="14" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12786,13 +12786,13 @@
         <v>21</v>
       </c>
       <c r="D499" s="14" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E499" s="14" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F499" s="14" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -12801,13 +12801,13 @@
         <v>24</v>
       </c>
       <c r="D500" s="14" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E500" s="14" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F500" s="14" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12816,13 +12816,13 @@
         <v>69</v>
       </c>
       <c r="D501" s="14" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="E501" s="14" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F501" s="14" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12831,13 +12831,13 @@
         <v>85</v>
       </c>
       <c r="D502" s="14" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E502" s="14" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="F502" s="14" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -12846,13 +12846,13 @@
         <v>88</v>
       </c>
       <c r="D503" s="14" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E503" s="14" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F503" s="14" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -12861,13 +12861,13 @@
         <v>91</v>
       </c>
       <c r="D504" s="14" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E504" s="14" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="F504" s="14" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -12878,13 +12878,13 @@
         <v>120</v>
       </c>
       <c r="D505" s="14" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E505" s="14" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F505" s="14" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12893,30 +12893,30 @@
         <v>123</v>
       </c>
       <c r="D506" s="14" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E506" s="14" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F506" s="14" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A507" s="24" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C507" s="13">
         <v>147</v>
       </c>
       <c r="D507" s="14" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E507" s="14" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F507" s="14" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -12927,13 +12927,13 @@
         <v>175</v>
       </c>
       <c r="D508" s="14" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="E508" s="14" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F508" s="14" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12942,13 +12942,13 @@
         <v>178</v>
       </c>
       <c r="D509" s="14" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E509" s="14" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F509" s="14" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12957,13 +12957,13 @@
         <v>183</v>
       </c>
       <c r="D510" s="14" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="E510" s="14" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="F510" s="14" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -12972,13 +12972,13 @@
         <v>205</v>
       </c>
       <c r="D511" s="14" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E511" s="14" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="F511" s="14" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12987,13 +12987,13 @@
         <v>208</v>
       </c>
       <c r="D512" s="14" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="E512" s="14" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F512" s="14" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13002,13 +13002,13 @@
         <v>211</v>
       </c>
       <c r="D513" s="14" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E513" s="14" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="F513" s="14" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -13017,13 +13017,13 @@
         <v>223</v>
       </c>
       <c r="D514" s="14" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="E514" s="14" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F514" s="14" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13034,13 +13034,13 @@
         <v>237</v>
       </c>
       <c r="D515" s="14" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E515" s="14" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F515" s="14" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
@@ -13049,13 +13049,13 @@
         <v>282</v>
       </c>
       <c r="D516" s="14" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E516" s="14" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F516" s="14" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -13066,13 +13066,13 @@
         <v>397</v>
       </c>
       <c r="D517" s="14" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E517" s="14" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F517" s="14" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13081,13 +13081,13 @@
         <v>406</v>
       </c>
       <c r="D518" s="14" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E518" s="14" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F518" s="14" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -13096,13 +13096,13 @@
         <v>409</v>
       </c>
       <c r="D519" s="14" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E519" s="14" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F519" s="14" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -13111,13 +13111,13 @@
         <v>426</v>
       </c>
       <c r="D520" s="14" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E520" s="14" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F520" s="14" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
@@ -13126,13 +13126,13 @@
         <v>429</v>
       </c>
       <c r="D521" s="14" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E521" s="14" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F521" s="14" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
@@ -13141,13 +13141,13 @@
         <v>452</v>
       </c>
       <c r="D522" s="14" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E522" s="14" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F522" s="14" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13156,13 +13156,13 @@
         <v>455</v>
       </c>
       <c r="D523" s="14" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E523" s="14" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="F523" s="14" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -13171,13 +13171,13 @@
         <v>465</v>
       </c>
       <c r="D524" s="14" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="E524" s="14" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F524" s="14" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -13188,13 +13188,13 @@
         <v>478</v>
       </c>
       <c r="D525" s="14" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E525" s="14" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F525" s="14" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -13203,13 +13203,13 @@
         <v>500</v>
       </c>
       <c r="D526" s="14" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="E526" s="14" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F526" s="14" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13218,13 +13218,13 @@
         <v>503</v>
       </c>
       <c r="D527" s="14" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E527" s="14" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F527" s="14" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
@@ -13233,7 +13233,7 @@
         <v>517</v>
       </c>
       <c r="D528" s="14" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E528" s="14" t="s">
         <v>1088</v>
@@ -13250,13 +13250,13 @@
         <v>525</v>
       </c>
       <c r="D529" s="14" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="E529" s="14" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F529" s="14" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -13265,13 +13265,13 @@
         <v>535</v>
       </c>
       <c r="D530" s="14" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E530" s="14" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F530" s="14" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13280,13 +13280,13 @@
         <v>538</v>
       </c>
       <c r="D531" s="14" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="E531" s="14" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F531" s="14" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -13295,13 +13295,13 @@
         <v>561</v>
       </c>
       <c r="D532" s="14" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E532" s="14" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F532" s="14" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
@@ -13312,13 +13312,13 @@
         <v>574</v>
       </c>
       <c r="D533" s="14" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="E533" s="14" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F533" s="14" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -13327,13 +13327,13 @@
         <v>580</v>
       </c>
       <c r="D534" s="14" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="E534" s="14" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F534" s="14" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
@@ -13344,13 +13344,13 @@
         <v>598</v>
       </c>
       <c r="D535" s="14" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="E535" s="14" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="F535" s="14" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13359,13 +13359,13 @@
         <v>614</v>
       </c>
       <c r="D536" s="14" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E536" s="14" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F536" s="14" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -13385,19 +13385,19 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="24" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C538" s="13">
         <v>633</v>
       </c>
       <c r="D538" s="14" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E538" s="14" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F538" s="14" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.3">
@@ -13408,13 +13408,13 @@
         <v>638</v>
       </c>
       <c r="D539" s="14" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E539" s="14" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F539" s="14" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13423,13 +13423,13 @@
         <v>641</v>
       </c>
       <c r="D540" s="14" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E540" s="14" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F540" s="14" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
@@ -13438,13 +13438,13 @@
         <v>644</v>
       </c>
       <c r="D541" s="14" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E541" s="14" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F541" s="14" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13453,13 +13453,13 @@
         <v>653</v>
       </c>
       <c r="D542" s="14" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E542" s="14" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F542" s="14" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13469,21 +13469,21 @@
         <v>662</v>
       </c>
       <c r="D543" s="28" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="E543" s="28" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F543" s="28" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A544" s="29" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B544" s="22" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C544" s="22"/>
       <c r="D544" s="23"/>
@@ -13498,13 +13498,13 @@
         <v>25</v>
       </c>
       <c r="D545" s="14" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="E545" s="14" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="F545" s="14" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13513,13 +13513,13 @@
         <v>45</v>
       </c>
       <c r="D546" s="14" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E546" s="14" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="F546" s="14" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13528,13 +13528,13 @@
         <v>48</v>
       </c>
       <c r="D547" s="14" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E547" s="14" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="F547" s="14" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13543,13 +13543,13 @@
         <v>51</v>
       </c>
       <c r="D548" s="14" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E548" s="14" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="F548" s="14" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13558,13 +13558,13 @@
         <v>57</v>
       </c>
       <c r="D549" s="14" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="E549" s="14" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="F549" s="14" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13575,13 +13575,13 @@
         <v>62</v>
       </c>
       <c r="D550" s="14" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E550" s="14" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F550" s="14" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13590,13 +13590,13 @@
         <v>66</v>
       </c>
       <c r="D551" s="14" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E551" s="14" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="F551" s="14" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
@@ -13605,13 +13605,13 @@
         <v>72</v>
       </c>
       <c r="D552" s="14" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E552" s="14" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="F552" s="14" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
@@ -13620,13 +13620,13 @@
         <v>75</v>
       </c>
       <c r="D553" s="14" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="E553" s="14" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="F553" s="14" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
@@ -13635,13 +13635,13 @@
         <v>89</v>
       </c>
       <c r="D554" s="14" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E554" s="14" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="F554" s="14" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
@@ -13667,13 +13667,13 @@
         <v>116</v>
       </c>
       <c r="D556" s="14" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E556" s="14" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="F556" s="14" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13684,13 +13684,13 @@
         <v>121</v>
       </c>
       <c r="D557" s="14" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="E557" s="14" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="F557" s="14" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
@@ -13699,13 +13699,13 @@
         <v>127</v>
       </c>
       <c r="D558" s="14" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="E558" s="14" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="F558" s="14" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.3">
@@ -13716,13 +13716,13 @@
         <v>132</v>
       </c>
       <c r="D559" s="14" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E559" s="14" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="F559" s="14" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
@@ -13731,13 +13731,13 @@
         <v>141</v>
       </c>
       <c r="D560" s="14" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="E560" s="14" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="F560" s="14" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.3">
@@ -13746,13 +13746,13 @@
         <v>144</v>
       </c>
       <c r="D561" s="14" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="E561" s="14" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="F561" s="14" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13761,13 +13761,13 @@
         <v>169</v>
       </c>
       <c r="D562" s="14" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E562" s="14" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="F562" s="14" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13776,13 +13776,13 @@
         <v>184</v>
       </c>
       <c r="D563" s="14" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="E563" s="14" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F563" s="14" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="564" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -13791,13 +13791,13 @@
         <v>187</v>
       </c>
       <c r="D564" s="14" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E564" s="14" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="F564" s="14" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13806,13 +13806,13 @@
         <v>190</v>
       </c>
       <c r="D565" s="14" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E565" s="14" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="F565" s="14" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="566" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13821,13 +13821,13 @@
         <v>193</v>
       </c>
       <c r="D566" s="14" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E566" s="14" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="F566" s="14" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="567" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13836,13 +13836,13 @@
         <v>196</v>
       </c>
       <c r="D567" s="14" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E567" s="14" t="s">
-        <v>1493</v>
+        <v>1524</v>
       </c>
       <c r="F567" s="14" t="s">
-        <v>1520</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.3">
@@ -13851,13 +13851,13 @@
         <v>214</v>
       </c>
       <c r="D568" s="14" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E568" s="14" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="F568" s="14" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13866,13 +13866,13 @@
         <v>217</v>
       </c>
       <c r="D569" s="14" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E569" s="14" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="F569" s="14" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.3">
@@ -13881,13 +13881,13 @@
         <v>224</v>
       </c>
       <c r="D570" s="14" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E570" s="14" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F570" s="14" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.3">
@@ -13896,13 +13896,13 @@
         <v>227</v>
       </c>
       <c r="D571" s="14" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E571" s="14" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F571" s="14" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.3">
@@ -13911,13 +13911,13 @@
         <v>230</v>
       </c>
       <c r="D572" s="14" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="E572" s="14" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="F572" s="14" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
   </sheetData>
